--- a/tests/zap_imoveis_expected.xlsx
+++ b/tests/zap_imoveis_expected.xlsx
@@ -195,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,7 +280,9 @@
       <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
